--- a/Team-Data/2008-09/2-3-2008-09.xlsx
+++ b/Team-Data/2008-09/2-3-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -768,22 +835,22 @@
         <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
@@ -813,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -863,13 +930,13 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
         <v>6.6</v>
@@ -878,64 +945,64 @@
         <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P3" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -956,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,19 +1032,19 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
       </c>
       <c r="AS3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
@@ -986,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1120,7 +1187,7 @@
         <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1147,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.417</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,64 +1309,64 @@
         <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
         <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1308,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
@@ -1320,13 +1387,13 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1344,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -1397,91 +1464,91 @@
         <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.826</v>
+        <v>0.804</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.382</v>
+        <v>0.378</v>
       </c>
       <c r="O6" t="n">
         <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U6" t="n">
         <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" t="n">
         <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1490,28 +1557,28 @@
         <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
@@ -1523,25 +1590,25 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1684,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1705,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,40 +1843,40 @@
         <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="P8" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.9</v>
@@ -1818,25 +1885,25 @@
         <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
         <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
         <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1848,13 +1915,13 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
@@ -1887,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -2060,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>24</v>
@@ -2084,10 +2151,10 @@
         <v>4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2239,10 +2306,10 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
@@ -2254,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.612</v>
+        <v>0.604</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,28 +2389,28 @@
         <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
         <v>20.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O11" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P11" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.804</v>
       </c>
       <c r="R11" t="n">
         <v>10.6</v>
@@ -2358,13 +2425,13 @@
         <v>20.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y11" t="n">
         <v>5.5</v>
@@ -2376,16 +2443,16 @@
         <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
@@ -2415,16 +2482,16 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2433,19 +2500,19 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -2486,97 +2553,97 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.452</v>
       </c>
       <c r="L12" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.803</v>
+        <v>0.806</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V12" t="n">
         <v>15.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="AC12" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2588,10 +2655,10 @@
         <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
         <v>16</v>
@@ -2603,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>13</v>
@@ -2621,16 +2688,16 @@
         <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
@@ -2770,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
@@ -2785,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
@@ -2800,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.804</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2877,28 +2944,28 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
@@ -2910,43 +2977,43 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" t="n">
-        <v>3</v>
-      </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3143,13 +3210,13 @@
         <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3307,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3331,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3352,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -3411,46 +3478,46 @@
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
         <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,13 +3529,13 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC17" t="n">
         <v>0.2</v>
@@ -3489,13 +3556,13 @@
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3504,46 +3571,46 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
         <v>22</v>
       </c>
       <c r="AT17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -3578,52 +3645,52 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
         <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>0.362</v>
+        <v>0.348</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
         <v>83.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P18" t="n">
         <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
         <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
         <v>42.2</v>
@@ -3632,10 +3699,10 @@
         <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
@@ -3650,19 +3717,19 @@
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3671,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -3680,22 +3747,22 @@
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
@@ -3707,16 +3774,16 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.449</v>
+        <v>0.438</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
@@ -3778,7 +3845,7 @@
         <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K19" t="n">
         <v>0.44</v>
@@ -3790,7 +3857,7 @@
         <v>20.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O19" t="n">
         <v>19.5</v>
@@ -3799,7 +3866,7 @@
         <v>25.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R19" t="n">
         <v>11.2</v>
@@ -3808,16 +3875,16 @@
         <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V19" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W19" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>4.5</v>
@@ -3835,10 +3902,10 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.8</v>
+        <v>-3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3847,16 +3914,16 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3865,16 +3932,16 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
         <v>11</v>
@@ -3895,13 +3962,13 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4093,7 @@
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>8</v>
@@ -4044,13 +4111,13 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4247,10 +4314,10 @@
         <v>15</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4268,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,16 +4481,16 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>7</v>
@@ -4450,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>8.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>18</v>
@@ -4587,7 +4654,7 @@
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4697,34 +4764,34 @@
         <v>4.3</v>
       </c>
       <c r="M24" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.325</v>
+        <v>0.328</v>
       </c>
       <c r="O24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P24" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
         <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4733,22 +4800,22 @@
         <v>5.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4760,13 +4827,13 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>10</v>
@@ -4781,13 +4848,13 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,10 +4863,10 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>24</v>
@@ -4817,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -4966,19 +5033,19 @@
         <v>5</v>
       </c>
       <c r="AP25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>7</v>
@@ -4990,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.652</v>
+        <v>0.638</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
@@ -5088,37 +5155,37 @@
         <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
@@ -5127,13 +5194,13 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5145,13 +5212,13 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,10 +5230,10 @@
         <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>21</v>
@@ -5178,13 +5245,13 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>10</v>
@@ -5324,13 +5391,13 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>4</v>
@@ -5351,13 +5418,13 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
         <v>33</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,67 +5483,67 @@
         <v>36.9</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
         <v>0.392</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T28" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U28" t="n">
         <v>21.9</v>
       </c>
       <c r="V28" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5515,16 +5582,16 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5536,10 +5603,10 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J29" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L29" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M29" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="O29" t="n">
         <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.824</v>
+        <v>0.825</v>
       </c>
       <c r="R29" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T29" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U29" t="n">
         <v>21.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
@@ -5646,25 +5713,25 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>23</v>
@@ -5673,13 +5740,13 @@
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5688,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
@@ -5712,10 +5779,10 @@
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>16</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5861,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6061,7 +6128,7 @@
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6073,7 +6140,7 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6088,7 +6155,7 @@
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-3-2008-09</t>
+          <t>2009-02-03</t>
         </is>
       </c>
     </row>
